--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fn1-Itga4.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H2">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I2">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J2">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N2">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O2">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P2">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q2">
-        <v>9.099653043129669</v>
+        <v>14.800894663885</v>
       </c>
       <c r="R2">
-        <v>81.896877388167</v>
+        <v>133.208051974965</v>
       </c>
       <c r="S2">
-        <v>3.692581436892331E-05</v>
+        <v>5.712320640979484E-05</v>
       </c>
       <c r="T2">
-        <v>3.735029159937486E-05</v>
+        <v>5.766342471788238E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H3">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I3">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J3">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N3">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O3">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P3">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q3">
-        <v>1666.632941753211</v>
+        <v>2574.297829795268</v>
       </c>
       <c r="R3">
-        <v>14999.6964757789</v>
+        <v>23168.68046815741</v>
       </c>
       <c r="S3">
-        <v>0.00676309067352588</v>
+        <v>0.009935355235687024</v>
       </c>
       <c r="T3">
-        <v>0.006840835147072469</v>
+        <v>0.01002931461109686</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H4">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I4">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J4">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N4">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O4">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P4">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q4">
-        <v>76.24967958375701</v>
+        <v>45.98129712065717</v>
       </c>
       <c r="R4">
-        <v>457.498077502542</v>
+        <v>275.887782723943</v>
       </c>
       <c r="S4">
-        <v>0.0003094163591353064</v>
+        <v>0.0001774621863111053</v>
       </c>
       <c r="T4">
-        <v>0.0002086488172178135</v>
+        <v>0.0001194269727229059</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.721787</v>
+        <v>29.20950566666667</v>
       </c>
       <c r="H5">
-        <v>74.165361</v>
+        <v>87.628517</v>
       </c>
       <c r="I5">
-        <v>0.0134084740040759</v>
+        <v>0.01829497698069002</v>
       </c>
       <c r="J5">
-        <v>0.01345828544885583</v>
+        <v>0.01840828041918582</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N5">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O5">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P5">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q5">
-        <v>1552.276910153954</v>
+        <v>2105.235590727331</v>
       </c>
       <c r="R5">
-        <v>13970.49219138559</v>
+        <v>18947.12031654598</v>
       </c>
       <c r="S5">
-        <v>0.00629904115704579</v>
+        <v>0.008125036352282095</v>
       </c>
       <c r="T5">
-        <v>0.006371451192966174</v>
+        <v>0.008201875410648171</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>4374.842957</v>
       </c>
       <c r="I6">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J6">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N6">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O6">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P6">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q6">
-        <v>536.7674678598198</v>
+        <v>738.932849652085</v>
       </c>
       <c r="R6">
-        <v>4830.907210738379</v>
+        <v>6650.395646868765</v>
       </c>
       <c r="S6">
-        <v>0.002178168308563529</v>
+        <v>0.002851869069553559</v>
       </c>
       <c r="T6">
-        <v>0.002203207237748379</v>
+        <v>0.002878839402286443</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J7">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N7">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O7">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P7">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q7">
-        <v>98310.81907810341</v>
+        <v>128521.5032213795</v>
       </c>
       <c r="R7">
-        <v>884797.3717029307</v>
+        <v>1156693.528992416</v>
       </c>
       <c r="S7">
-        <v>0.3989390626795045</v>
+        <v>0.4960213908234741</v>
       </c>
       <c r="T7">
-        <v>0.4035250292001956</v>
+        <v>0.5007123011096296</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J8">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N8">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O8">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P8">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q8">
-        <v>4497.792085182542</v>
+        <v>2295.610615686117</v>
       </c>
       <c r="R8">
-        <v>26986.75251109525</v>
+        <v>13773.6636941167</v>
       </c>
       <c r="S8">
-        <v>0.01825175474496345</v>
+        <v>0.00885977787250423</v>
       </c>
       <c r="T8">
-        <v>0.01230771071810372</v>
+        <v>0.005962376956495064</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.7909348416823457</v>
+        <v>0.913374480506715</v>
       </c>
       <c r="J9">
-        <v>0.7938731034993884</v>
+        <v>0.9190311407684336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N9">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O9">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P9">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q9">
-        <v>91565.22150146004</v>
+        <v>105103.6285016577</v>
       </c>
       <c r="R9">
-        <v>824086.9935131404</v>
+        <v>945932.6565149195</v>
       </c>
       <c r="S9">
-        <v>0.3715658559493143</v>
+        <v>0.405641442741183</v>
       </c>
       <c r="T9">
-        <v>0.3758371563433408</v>
+        <v>0.4094776233000226</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,46 +1036,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H10">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I10">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J10">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N10">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O10">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P10">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q10">
-        <v>22.12167093604334</v>
+        <v>29.38239085364</v>
       </c>
       <c r="R10">
-        <v>199.09503842439</v>
+        <v>264.44151768276</v>
       </c>
       <c r="S10">
-        <v>8.97683362918414E-05</v>
+        <v>0.0001133996569573037</v>
       </c>
       <c r="T10">
-        <v>9.080025976929554E-05</v>
+        <v>0.0001144720857418454</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H11">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I11">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J11">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N11">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O11">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P11">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q11">
-        <v>4051.66057803387</v>
+        <v>5110.436005823699</v>
       </c>
       <c r="R11">
-        <v>36464.94520230483</v>
+        <v>45993.92405241329</v>
       </c>
       <c r="S11">
-        <v>0.01644138141105511</v>
+        <v>0.01972343547022374</v>
       </c>
       <c r="T11">
-        <v>0.01663038176664472</v>
+        <v>0.01990996143067071</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H12">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I12">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J12">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N12">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O12">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P12">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q12">
-        <v>185.36644339469</v>
+        <v>91.28099852322532</v>
       </c>
       <c r="R12">
-        <v>1112.19866036814</v>
+        <v>547.6859911393519</v>
       </c>
       <c r="S12">
-        <v>0.0007522052595387418</v>
+        <v>0.0003522937929324953</v>
       </c>
       <c r="T12">
-        <v>0.0005072347762942452</v>
+        <v>0.0002370836405973282</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>60.09979000000001</v>
+        <v>57.98602933333333</v>
       </c>
       <c r="H13">
-        <v>180.29937</v>
+        <v>173.958088</v>
       </c>
       <c r="I13">
-        <v>0.03259661091107292</v>
+        <v>0.03631876156896331</v>
       </c>
       <c r="J13">
-        <v>0.03271770480169137</v>
+        <v>0.03654368891224535</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N13">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O13">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P13">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q13">
-        <v>3773.655857568124</v>
+        <v>4179.264589773635</v>
       </c>
       <c r="R13">
-        <v>33962.90271811312</v>
+        <v>37613.38130796271</v>
       </c>
       <c r="S13">
-        <v>0.01531325590418722</v>
+        <v>0.01612963264884977</v>
       </c>
       <c r="T13">
-        <v>0.01548928799898311</v>
+        <v>0.01628217175523546</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H14">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I14">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J14">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N14">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O14">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P14">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q14">
-        <v>7.535396987458001</v>
+        <v>14.938507985775</v>
       </c>
       <c r="R14">
-        <v>45.212381924748</v>
+        <v>89.63104791465001</v>
       </c>
       <c r="S14">
-        <v>3.057816259984771E-05</v>
+        <v>5.765431715475819E-05</v>
       </c>
       <c r="T14">
-        <v>2.061978066376969E-05</v>
+        <v>3.879970547713346E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H15">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I15">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J15">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N15">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O15">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P15">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q15">
-        <v>1380.134032469226</v>
+        <v>2598.232712377518</v>
       </c>
       <c r="R15">
-        <v>8280.804194815357</v>
+        <v>15589.39627426511</v>
       </c>
       <c r="S15">
-        <v>0.005600496287676539</v>
+        <v>0.01002773054604419</v>
       </c>
       <c r="T15">
-        <v>0.003776584177779267</v>
+        <v>0.006748375680978111</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H16">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I16">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J16">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N16">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O16">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P16">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q16">
-        <v>63.14214433306201</v>
+        <v>46.4088144556075</v>
       </c>
       <c r="R16">
-        <v>252.568577332248</v>
+        <v>185.63525782243</v>
       </c>
       <c r="S16">
-        <v>0.0002562268132034741</v>
+        <v>0.0001791121650132524</v>
       </c>
       <c r="T16">
-        <v>0.0001151876642071061</v>
+        <v>8.035824077992031E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.472042</v>
+        <v>29.481085</v>
       </c>
       <c r="H17">
-        <v>40.944084</v>
+        <v>58.96217</v>
       </c>
       <c r="I17">
-        <v>0.01110351945704208</v>
+        <v>0.01846507700595112</v>
       </c>
       <c r="J17">
-        <v>0.00742984544919738</v>
+        <v>0.01238628926567028</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N17">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O17">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P17">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q17">
-        <v>1285.436125645042</v>
+        <v>2124.809303639966</v>
       </c>
       <c r="R17">
-        <v>7712.616753870253</v>
+        <v>12748.8558218398</v>
       </c>
       <c r="S17">
-        <v>0.005216218193562222</v>
+        <v>0.008200579977738924</v>
       </c>
       <c r="T17">
-        <v>0.003517453826547237</v>
+        <v>0.005518755638435113</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,46 +1532,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H18">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I18">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J18">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.3680823333333333</v>
+        <v>0.506715</v>
       </c>
       <c r="N18">
-        <v>1.104247</v>
+        <v>1.520145</v>
       </c>
       <c r="O18">
-        <v>0.002753916244137746</v>
+        <v>0.003122343715987576</v>
       </c>
       <c r="P18">
-        <v>0.002775263739301222</v>
+        <v>0.003132472094339857</v>
       </c>
       <c r="Q18">
-        <v>103.125226488339</v>
+        <v>10.959474736485</v>
       </c>
       <c r="R18">
-        <v>928.127038395051</v>
+        <v>98.635272628365</v>
       </c>
       <c r="S18">
-        <v>0.0004184756223136052</v>
+        <v>4.229746591216121E-05</v>
       </c>
       <c r="T18">
-        <v>0.0004232861695204033</v>
+        <v>4.269747611655233E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H19">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I19">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J19">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>67.415553</v>
+        <v>88.13219433333332</v>
       </c>
       <c r="N19">
-        <v>202.246659</v>
+        <v>264.396583</v>
       </c>
       <c r="O19">
-        <v>0.5043892893009332</v>
+        <v>0.5430646480820168</v>
       </c>
       <c r="P19">
-        <v>0.5082991569073941</v>
+        <v>0.5448262620252092</v>
       </c>
       <c r="Q19">
-        <v>18887.74206847279</v>
+        <v>1906.165314362418</v>
       </c>
       <c r="R19">
-        <v>169989.6786162551</v>
+        <v>17155.48782926177</v>
       </c>
       <c r="S19">
-        <v>0.07664525824917116</v>
+        <v>0.007356736006587792</v>
       </c>
       <c r="T19">
-        <v>0.07752632661570211</v>
+        <v>0.007426309192833936</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H20">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I20">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J20">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.084311</v>
+        <v>1.5741895</v>
       </c>
       <c r="N20">
-        <v>6.168622</v>
+        <v>3.148379</v>
       </c>
       <c r="O20">
-        <v>0.0230761799621083</v>
+        <v>0.009700049718478087</v>
       </c>
       <c r="P20">
-        <v>0.01550337284869761</v>
+        <v>0.006487676741301404</v>
       </c>
       <c r="Q20">
-        <v>864.1280540553212</v>
+        <v>34.0473245427705</v>
       </c>
       <c r="R20">
-        <v>5184.768324331926</v>
+        <v>204.283947256623</v>
       </c>
       <c r="S20">
-        <v>0.003506576785267331</v>
+        <v>0.0001314037017170048</v>
       </c>
       <c r="T20">
-        <v>0.002364590872874719</v>
+        <v>8.843093070618586E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>280.168911</v>
+        <v>21.628479</v>
       </c>
       <c r="H21">
-        <v>840.5067330000001</v>
+        <v>64.885437</v>
       </c>
       <c r="I21">
-        <v>0.1519565539454633</v>
+        <v>0.01354670393768061</v>
       </c>
       <c r="J21">
-        <v>0.152521060800867</v>
+        <v>0.01363060063446486</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>62.78983433333334</v>
+        <v>72.07364666666666</v>
       </c>
       <c r="N21">
-        <v>188.369503</v>
+        <v>216.22094</v>
       </c>
       <c r="O21">
-        <v>0.4697806144928209</v>
+        <v>0.4441129584835175</v>
       </c>
       <c r="P21">
-        <v>0.4734222065046071</v>
+        <v>0.4455535891391496</v>
       </c>
       <c r="Q21">
-        <v>17591.75950704041</v>
+        <v>1558.84335338342</v>
       </c>
       <c r="R21">
-        <v>158325.8355633637</v>
+        <v>14029.59018045078</v>
       </c>
       <c r="S21">
-        <v>0.07138624328871125</v>
+        <v>0.006016266763463651</v>
       </c>
       <c r="T21">
-        <v>0.07220685714276981</v>
+        <v>0.006073163034808189</v>
       </c>
     </row>
   </sheetData>
